--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F3F8A3-B4B6-4322-8D52-611FA71665D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C660FC6-0760-43A7-9B4F-F8E63790E84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="385">
   <si>
     <t>Link</t>
   </si>
@@ -1024,9 +1024,6 @@
     <t>Find minimum number of Laptops required</t>
   </si>
   <si>
-    <t>Sorting, Algorithms</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=FdzJmTCVyJU</t>
   </si>
   <si>
@@ -1181,6 +1178,18 @@
   </si>
   <si>
     <t>Arrays, Data Structures</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/ec277982aea7239b550b28421e00acbb1ea03d2c/1</t>
+  </si>
+  <si>
+    <t>Array, Sorting, Algorithms</t>
+  </si>
+  <si>
+    <t>Tree, DFS, Treeimplementation, Data Structures, Algorithms</t>
   </si>
 </sst>
 </file>
@@ -1918,7 +1927,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1982,7 +1991,7 @@
       <c r="D3" t="s">
         <v>324</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="28" t="s">
         <v>325</v>
       </c>
     </row>
@@ -1991,15 +2000,15 @@
         <v>44926</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="D4" t="s">
         <v>328</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="28" t="s">
         <v>327</v>
       </c>
       <c r="F4" t="s">
@@ -2011,13 +2020,13 @@
         <v>44926</v>
       </c>
       <c r="C5" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>332</v>
-      </c>
-      <c r="D5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2025,13 +2034,27 @@
         <v>44927</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6">
+        <v>44928</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" t="s">
         <v>381</v>
       </c>
-      <c r="D6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>379</v>
+      <c r="E7" s="28" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2041,10 +2064,13 @@
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{2AB6853C-DA77-487A-A421-B74277CCAEB4}"/>
     <hyperlink ref="E6" r:id="rId2" xr:uid="{E751D02F-793D-43DA-9428-F59829B17D9B}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{EF6B4218-E26B-4E83-97F2-15EF11D8C334}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{963FC31C-DABE-498E-ADE2-A55DBA9B3ED6}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{ABE45FBE-CAFA-4C3C-9116-5F77742F7617}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2053,7 +2079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014C5B5-AA76-432C-BC45-E7A9A66A2A09}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2066,7 +2092,7 @@
       <c r="A1" s="29"/>
       <c r="B1" s="30"/>
       <c r="C1" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21">
@@ -2074,10 +2100,10 @@
         <v>217</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21">
@@ -2085,10 +2111,10 @@
         <v>217</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -2096,10 +2122,10 @@
         <v>217</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21">
@@ -2107,10 +2133,10 @@
         <v>217</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21">
@@ -2118,10 +2144,10 @@
         <v>217</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -2129,10 +2155,10 @@
         <v>217</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -2140,10 +2166,10 @@
         <v>217</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -2151,10 +2177,10 @@
         <v>217</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -2162,10 +2188,10 @@
         <v>217</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -2173,10 +2199,10 @@
         <v>217</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -2184,10 +2210,10 @@
         <v>217</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -2195,10 +2221,10 @@
         <v>217</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -2206,10 +2232,10 @@
         <v>217</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
@@ -2217,10 +2243,10 @@
         <v>217</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
@@ -2228,10 +2254,10 @@
         <v>217</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -2239,10 +2265,10 @@
         <v>217</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
@@ -2250,10 +2276,10 @@
         <v>217</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
@@ -2261,10 +2287,10 @@
         <v>217</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21">
@@ -2272,10 +2298,10 @@
         <v>217</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">
@@ -2283,10 +2309,10 @@
         <v>217</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21">
@@ -2294,10 +2320,10 @@
         <v>217</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
@@ -2305,10 +2331,10 @@
         <v>217</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
@@ -2316,10 +2342,10 @@
         <v>217</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21">
@@ -2327,10 +2353,10 @@
         <v>217</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">
@@ -2338,10 +2364,10 @@
         <v>217</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21">
@@ -2349,10 +2375,10 @@
         <v>217</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21">
@@ -2360,10 +2386,10 @@
         <v>217</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21">
@@ -2371,10 +2397,10 @@
         <v>217</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21">
@@ -2382,10 +2408,10 @@
         <v>217</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21">
@@ -2393,10 +2419,10 @@
         <v>217</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21">
@@ -2404,10 +2430,10 @@
         <v>217</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
@@ -2415,10 +2441,10 @@
         <v>217</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
@@ -2426,10 +2452,10 @@
         <v>217</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">
@@ -2437,10 +2463,10 @@
         <v>217</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21">
@@ -2448,10 +2474,10 @@
         <v>217</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21">
@@ -2459,10 +2485,10 @@
         <v>217</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21">
@@ -2470,10 +2496,10 @@
         <v>217</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21">
@@ -2481,10 +2507,10 @@
         <v>217</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21">
@@ -2492,10 +2518,10 @@
         <v>217</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21">
@@ -2503,10 +2529,10 @@
         <v>217</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21">
@@ -2514,10 +2540,10 @@
         <v>217</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="21">
@@ -2525,10 +2551,10 @@
         <v>217</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
@@ -2536,10 +2562,10 @@
         <v>217</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C660FC6-0760-43A7-9B4F-F8E63790E84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C342900-A326-4C3D-8868-73F041F81313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="390">
   <si>
     <t>Link</t>
   </si>
@@ -1190,6 +1190,21 @@
   </si>
   <si>
     <t>Tree, DFS, Treeimplementation, Data Structures, Algorithms</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/sort-an-array-of-0s-1s-and-2s4231/1?page=1&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Sort an array of 0s, 1s and 2s</t>
+  </si>
+  <si>
+    <t>Arrays, Sorting, Data Structures, Algorithms</t>
+  </si>
+  <si>
+    <t>Tricky</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1394,6 +1409,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1502,7 +1529,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1544,6 +1571,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1611,13 +1640,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B0CB1DAF-34EF-4F71-AA46-F870D9BC6491}" name="Table2" displayName="Table2" ref="A1:F4" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A1:F4" xr:uid="{B0CB1DAF-34EF-4F71-AA46-F870D9BC6491}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B0CB1DAF-34EF-4F71-AA46-F870D9BC6491}" name="Table2" displayName="Table2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A1:G4" xr:uid="{B0CB1DAF-34EF-4F71-AA46-F870D9BC6491}"/>
+  <tableColumns count="7">
     <tableColumn id="7" xr3:uid="{1636F8C4-AD87-413E-853F-A1F7CB1E85B3}" name="Date" dataDxfId="1">
       <calculatedColumnFormula>DATE(2022,12,29)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{F8E2648D-5283-445A-985E-B0936D934934}" name="Video Solution"/>
+    <tableColumn id="6" xr3:uid="{300E2E8B-BAF5-457C-8E05-EA3B77936E83}" name="Tricky"/>
     <tableColumn id="2" xr3:uid="{07EAA55F-734B-4DBC-9003-909B688628D0}" name="Category" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{ADBF6665-50C8-4EE4-BE08-A2475134EB15}" name="Name"/>
     <tableColumn id="4" xr3:uid="{B6C0732E-E7A3-45D3-B3EE-C4763E1F671B}" name="Link"/>
@@ -1924,42 +1954,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E48C632-11F5-4A2E-85F2-57A50FB21D90}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="2" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="6">
         <f>DATE(2022,12,29)</f>
         <v>44924</v>
@@ -1967,106 +2000,129 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="6">
         <f>DATE(2022,12,29)</f>
         <v>44924</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>324</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="28" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="6">
         <v>44926</v>
       </c>
       <c r="B4" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>328</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="F4" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="27">
         <v>44926</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>330</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="F5" s="28" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="6">
         <v>44927</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="D6" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>379</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="F6" s="28" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="6">
         <v>44928</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>381</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="F7" s="28" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="C15" s="26"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
+        <v>44928</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="E8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{2AB6853C-DA77-487A-A421-B74277CCAEB4}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{E751D02F-793D-43DA-9428-F59829B17D9B}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{EF6B4218-E26B-4E83-97F2-15EF11D8C334}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{963FC31C-DABE-498E-ADE2-A55DBA9B3ED6}"/>
-    <hyperlink ref="E4" r:id="rId5" xr:uid="{ABE45FBE-CAFA-4C3C-9116-5F77742F7617}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{2AB6853C-DA77-487A-A421-B74277CCAEB4}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{E751D02F-793D-43DA-9428-F59829B17D9B}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{EF6B4218-E26B-4E83-97F2-15EF11D8C334}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{963FC31C-DABE-498E-ADE2-A55DBA9B3ED6}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{ABE45FBE-CAFA-4C3C-9116-5F77742F7617}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C342900-A326-4C3D-8868-73F041F81313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D93137-9970-4974-86AF-BDF021999AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="395">
   <si>
     <t>Link</t>
   </si>
@@ -1205,6 +1205,21 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Count Inversions in array</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/inversion-of-array-1587115620/1?page=2&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Arrays, Sorting, Divide and Conquer, Data Structures, Algorithms</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=owZhw-A0yWE</t>
+  </si>
+  <si>
+    <t>We can make use Merge Sort and find inversions</t>
   </si>
 </sst>
 </file>
@@ -1650,8 +1665,8 @@
     <tableColumn id="6" xr3:uid="{300E2E8B-BAF5-457C-8E05-EA3B77936E83}" name="Tricky"/>
     <tableColumn id="2" xr3:uid="{07EAA55F-734B-4DBC-9003-909B688628D0}" name="Category" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{ADBF6665-50C8-4EE4-BE08-A2475134EB15}" name="Name"/>
+    <tableColumn id="8" xr3:uid="{37EB4B83-968F-4C07-8BDC-B9EF8C68E356}" name="Notes"/>
     <tableColumn id="4" xr3:uid="{B6C0732E-E7A3-45D3-B3EE-C4763E1F671B}" name="Link"/>
-    <tableColumn id="5" xr3:uid="{C577146A-AA00-42D0-9239-AE07A565D370}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1957,7 +1972,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1966,7 +1981,8 @@
     <col min="2" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1986,10 +2002,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2006,11 +2022,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2024,7 +2040,7 @@
       <c r="E3" t="s">
         <v>324</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="28" t="s">
         <v>325</v>
       </c>
     </row>
@@ -2044,11 +2060,11 @@
       <c r="E4" t="s">
         <v>328</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>327</v>
-      </c>
-      <c r="G4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2061,7 +2077,7 @@
       <c r="E5" t="s">
         <v>330</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="G5" s="28" t="s">
         <v>332</v>
       </c>
     </row>
@@ -2075,7 +2091,7 @@
       <c r="E6" t="s">
         <v>379</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="G6" s="28" t="s">
         <v>378</v>
       </c>
     </row>
@@ -2092,7 +2108,7 @@
       <c r="E7" t="s">
         <v>381</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="G7" s="28" t="s">
         <v>382</v>
       </c>
     </row>
@@ -2109,8 +2125,31 @@
       <c r="E8" t="s">
         <v>386</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6">
+        <v>44929</v>
+      </c>
+      <c r="B9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="E9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F9" t="s">
+        <v>394</v>
+      </c>
+      <c r="G9" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2118,15 +2157,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{2AB6853C-DA77-487A-A421-B74277CCAEB4}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{E751D02F-793D-43DA-9428-F59829B17D9B}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{EF6B4218-E26B-4E83-97F2-15EF11D8C334}"/>
-    <hyperlink ref="F3" r:id="rId4" xr:uid="{963FC31C-DABE-498E-ADE2-A55DBA9B3ED6}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{ABE45FBE-CAFA-4C3C-9116-5F77742F7617}"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{2AB6853C-DA77-487A-A421-B74277CCAEB4}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{E751D02F-793D-43DA-9428-F59829B17D9B}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{EF6B4218-E26B-4E83-97F2-15EF11D8C334}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{963FC31C-DABE-498E-ADE2-A55DBA9B3ED6}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{ABE45FBE-CAFA-4C3C-9116-5F77742F7617}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D93137-9970-4974-86AF-BDF021999AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B07C74-05C0-44AD-BE87-380306D541AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="398">
   <si>
     <t>Link</t>
   </si>
@@ -1220,6 +1220,15 @@
   </si>
   <si>
     <t>We can make use Merge Sort and find inversions</t>
+  </si>
+  <si>
+    <t>Stock buy and sell</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/stock-buy-and-sell-1587115621/1</t>
+  </si>
+  <si>
+    <t>Arrays, Greedy , Dynamic Programming, Data Structures, Algorithms</t>
   </si>
 </sst>
 </file>
@@ -1972,7 +1981,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2152,6 +2161,23 @@
         <v>391</v>
       </c>
     </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6">
+        <v>44930</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="E10" t="s">
+        <v>395</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>396</v>
+      </c>
+    </row>
     <row r="15" spans="1:7">
       <c r="D15" s="26"/>
     </row>
@@ -2162,11 +2188,12 @@
     <hyperlink ref="G7" r:id="rId3" xr:uid="{EF6B4218-E26B-4E83-97F2-15EF11D8C334}"/>
     <hyperlink ref="G3" r:id="rId4" xr:uid="{963FC31C-DABE-498E-ADE2-A55DBA9B3ED6}"/>
     <hyperlink ref="G4" r:id="rId5" xr:uid="{ABE45FBE-CAFA-4C3C-9116-5F77742F7617}"/>
+    <hyperlink ref="G10" r:id="rId6" xr:uid="{820DA53F-3B60-45D2-909D-339D96A1F3DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B07C74-05C0-44AD-BE87-380306D541AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2AF1FB-80E8-4E25-A319-0AFB16089A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="GFG-POTD" sheetId="2" r:id="rId1"/>
-    <sheet name="LoveBabber" sheetId="4" r:id="rId2"/>
-    <sheet name="Neetcode" sheetId="3" r:id="rId3"/>
+    <sheet name="HackerRank" sheetId="5" r:id="rId2"/>
+    <sheet name="LoveBabber" sheetId="4" r:id="rId3"/>
+    <sheet name="Neetcode" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="403">
   <si>
     <t>Link</t>
   </si>
@@ -1229,6 +1230,21 @@
   </si>
   <si>
     <t>Arrays, Greedy , Dynamic Programming, Data Structures, Algorithms</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>https://studyalgorithms.com/misc/hackerrank-problem-1-multiples-of-3-and-5/</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Multiples of 3 and 5</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/contests/projecteuler/challenges/euler001/problem</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1447,8 +1463,14 @@
         <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1547,13 +1569,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1597,13 +1647,70 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="14" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{57C62609-0586-4C44-B918-A5A2477B909C}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFA5A5A5"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA5A5A5"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFA5A5A5"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1664,18 +1771,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B0CB1DAF-34EF-4F71-AA46-F870D9BC6491}" name="Table2" displayName="Table2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B0CB1DAF-34EF-4F71-AA46-F870D9BC6491}" name="Table2" displayName="Table2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:G4" xr:uid="{B0CB1DAF-34EF-4F71-AA46-F870D9BC6491}"/>
   <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{1636F8C4-AD87-413E-853F-A1F7CB1E85B3}" name="Date" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{1636F8C4-AD87-413E-853F-A1F7CB1E85B3}" name="Date" dataDxfId="4">
       <calculatedColumnFormula>DATE(2022,12,29)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{F8E2648D-5283-445A-985E-B0936D934934}" name="Video Solution"/>
     <tableColumn id="6" xr3:uid="{300E2E8B-BAF5-457C-8E05-EA3B77936E83}" name="Tricky"/>
-    <tableColumn id="2" xr3:uid="{07EAA55F-734B-4DBC-9003-909B688628D0}" name="Category" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{07EAA55F-734B-4DBC-9003-909B688628D0}" name="Category" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{ADBF6665-50C8-4EE4-BE08-A2475134EB15}" name="Name"/>
     <tableColumn id="8" xr3:uid="{37EB4B83-968F-4C07-8BDC-B9EF8C68E356}" name="Notes"/>
     <tableColumn id="4" xr3:uid="{B6C0732E-E7A3-45D3-B3EE-C4763E1F671B}" name="Link"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0C38D52D-4EF2-4BC5-A7FE-7BFD4312B655}" name="Table4" displayName="Table4" ref="A1:G2" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A1:G2" xr:uid="{0C38D52D-4EF2-4BC5-A7FE-7BFD4312B655}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{D52E4DD0-9BE2-4B9A-ACA0-3EAD08DE4AE8}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{18871513-82F0-4B9B-B209-13B31EA695F0}" name="Solution"/>
+    <tableColumn id="3" xr3:uid="{F8B293A4-57C5-4B81-9D4F-324943D7EC3E}" name="Tricky" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{1F563A5A-0E60-4F11-9825-2B76FE05AA45}" name="Category"/>
+    <tableColumn id="5" xr3:uid="{5CDAEE13-AFFA-4DC6-A6CC-D15AB729CCFB}" name="Name"/>
+    <tableColumn id="6" xr3:uid="{ADCF4B84-9317-47BE-865F-3B86B1081681}" name="Notes"/>
+    <tableColumn id="7" xr3:uid="{D07BE847-66C4-4E81-9367-DCA7D5A36A73}" name="Link" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1980,8 +2103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E48C632-11F5-4A2E-85F2-57A50FB21D90}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2199,6 +2322,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1821A91C-C2B8-4ED2-80E9-296D53AF9536}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="42">
+        <v>44930</v>
+      </c>
+      <c r="B2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{59650EC8-569D-4A36-91B3-F60D81470FDC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014C5B5-AA76-432C-BC45-E7A9A66A2A09}">
   <dimension ref="A1:C44"/>
   <sheetViews>
@@ -2740,7 +2930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DEF9E1-C543-4106-98CA-32E1F4A8E82A}">
   <dimension ref="A1:E78"/>
   <sheetViews>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2AF1FB-80E8-4E25-A319-0AFB16089A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5E5FCD-FB63-4366-928B-ACC8FEADE8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="GFG-POTD" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="407">
   <si>
     <t>Link</t>
   </si>
@@ -1245,6 +1245,18 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/contests/projecteuler/challenges/euler001/problem</t>
+  </si>
+  <si>
+    <t>Find the longest string</t>
+  </si>
+  <si>
+    <t>Strings, Trie , BFS , Data Structures, Algorithms, Advanced Data Structure</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jYpebKeiEK0</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/8d157f11af5416087251513cfc38ffc4d23be308/1</t>
   </si>
 </sst>
 </file>
@@ -1647,11 +1659,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="14" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="14" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1667,6 +1679,13 @@
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFA5A5A5"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1702,13 +1721,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FFA5A5A5"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1789,7 +1801,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0C38D52D-4EF2-4BC5-A7FE-7BFD4312B655}" name="Table4" displayName="Table4" ref="A1:G2" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0C38D52D-4EF2-4BC5-A7FE-7BFD4312B655}" name="Table4" displayName="Table4" ref="A1:G2" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:G2" xr:uid="{0C38D52D-4EF2-4BC5-A7FE-7BFD4312B655}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D52E4DD0-9BE2-4B9A-ACA0-3EAD08DE4AE8}" name="Date"/>
@@ -2103,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E48C632-11F5-4A2E-85F2-57A50FB21D90}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2299,6 +2311,26 @@
       </c>
       <c r="G10" s="28" t="s">
         <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
+        <v>44931</v>
+      </c>
+      <c r="B11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="E11" t="s">
+        <v>403</v>
+      </c>
+      <c r="G11" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2325,7 +2357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1821A91C-C2B8-4ED2-80E9-296D53AF9536}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5E5FCD-FB63-4366-928B-ACC8FEADE8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820EC3D3-7AE7-4B1B-A202-74F76CBC61A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="410">
   <si>
     <t>Link</t>
   </si>
@@ -1257,6 +1257,15 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/8d157f11af5416087251513cfc38ffc4d23be308/1</t>
+  </si>
+  <si>
+    <t>Finding middle element in a linked list</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/finding-middle-element-in-a-linked-list/1</t>
+  </si>
+  <si>
+    <t>Linked List, Data Structures</t>
   </si>
 </sst>
 </file>
@@ -2116,7 +2125,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2333,6 +2342,20 @@
         <v>406</v>
       </c>
     </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6">
+        <v>44933</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="E12" t="s">
+        <v>407</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>408</v>
+      </c>
+    </row>
     <row r="15" spans="1:7">
       <c r="D15" s="26"/>
     </row>
@@ -2344,11 +2367,12 @@
     <hyperlink ref="G3" r:id="rId4" xr:uid="{963FC31C-DABE-498E-ADE2-A55DBA9B3ED6}"/>
     <hyperlink ref="G4" r:id="rId5" xr:uid="{ABE45FBE-CAFA-4C3C-9116-5F77742F7617}"/>
     <hyperlink ref="G10" r:id="rId6" xr:uid="{820DA53F-3B60-45D2-909D-339D96A1F3DA}"/>
+    <hyperlink ref="G12" r:id="rId7" xr:uid="{940BAC9C-029F-4583-BF04-BB4B64DE1559}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2424,7 +2448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014C5B5-AA76-432C-BC45-E7A9A66A2A09}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820EC3D3-7AE7-4B1B-A202-74F76CBC61A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD6494D-7AC3-49A1-A2E2-2832EB5FDF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="416">
   <si>
     <t>Link</t>
   </si>
@@ -1266,6 +1266,24 @@
   </si>
   <si>
     <t>Linked List, Data Structures</t>
+  </si>
+  <si>
+    <t>First Missing Positive</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-missing-positive/description/</t>
+  </si>
+  <si>
+    <t>Array, Hash Table</t>
+  </si>
+  <si>
+    <t>Transform to Sum Tree</t>
+  </si>
+  <si>
+    <t>Tree. Data Structures</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/d7e0ce338b11f0be36877d9c35cc8dfad6636957/1</t>
   </si>
 </sst>
 </file>
@@ -2125,7 +2143,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2278,7 +2296,7 @@
       <c r="E8" t="s">
         <v>386</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="28" t="s">
         <v>385</v>
       </c>
     </row>
@@ -2354,6 +2372,37 @@
       </c>
       <c r="G12" s="28" t="s">
         <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6">
+        <v>44933</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E13" t="s">
+        <v>410</v>
+      </c>
+      <c r="G13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6">
+        <v>44936</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="E14" t="s">
+        <v>413</v>
+      </c>
+      <c r="G14" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2368,11 +2417,12 @@
     <hyperlink ref="G4" r:id="rId5" xr:uid="{ABE45FBE-CAFA-4C3C-9116-5F77742F7617}"/>
     <hyperlink ref="G10" r:id="rId6" xr:uid="{820DA53F-3B60-45D2-909D-339D96A1F3DA}"/>
     <hyperlink ref="G12" r:id="rId7" xr:uid="{940BAC9C-029F-4583-BF04-BB4B64DE1559}"/>
+    <hyperlink ref="G8" r:id="rId8" xr:uid="{EEDC20E1-9658-4446-AB7D-9314CD954902}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2448,7 +2498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014C5B5-AA76-432C-BC45-E7A9A66A2A09}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD6494D-7AC3-49A1-A2E2-2832EB5FDF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9573A84-69C1-4F81-8B0C-55BC14047578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="419">
   <si>
     <t>Link</t>
   </si>
@@ -1284,6 +1284,15 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/d7e0ce338b11f0be36877d9c35cc8dfad6636957/1</t>
+  </si>
+  <si>
+    <t>Power Set of string</t>
+  </si>
+  <si>
+    <t>Bit Magic, Mathematical, Data Structures, Algorithms</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/power-set4302/1</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1678,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1692,6 +1700,7 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2143,7 +2152,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2163,7 +2172,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>388</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2211,7 +2220,7 @@
       <c r="E3" t="s">
         <v>324</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>325</v>
       </c>
     </row>
@@ -2222,7 +2231,7 @@
       <c r="B4" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>389</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -2234,12 +2243,12 @@
       <c r="F4" t="s">
         <v>328</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>44926</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -2248,7 +2257,7 @@
       <c r="E5" t="s">
         <v>330</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>332</v>
       </c>
     </row>
@@ -2256,13 +2265,13 @@
       <c r="A6" s="6">
         <v>44927</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>380</v>
       </c>
       <c r="E6" t="s">
         <v>379</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>378</v>
       </c>
     </row>
@@ -2270,7 +2279,7 @@
       <c r="A7" s="6">
         <v>44928</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>389</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -2279,7 +2288,7 @@
       <c r="E7" t="s">
         <v>381</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>382</v>
       </c>
     </row>
@@ -2287,16 +2296,16 @@
       <c r="A8" s="6">
         <v>44928</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>387</v>
       </c>
       <c r="E8" t="s">
         <v>386</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>385</v>
       </c>
     </row>
@@ -2307,7 +2316,7 @@
       <c r="B9" t="s">
         <v>393</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>389</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -2327,16 +2336,16 @@
       <c r="A10" s="6">
         <v>44930</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="33" t="s">
         <v>397</v>
       </c>
       <c r="E10" t="s">
         <v>395</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>396</v>
       </c>
     </row>
@@ -2347,7 +2356,7 @@
       <c r="B11" t="s">
         <v>405</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>389</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -2364,13 +2373,13 @@
       <c r="A12" s="6">
         <v>44933</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="33" t="s">
         <v>409</v>
       </c>
       <c r="E12" t="s">
         <v>407</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="27" t="s">
         <v>408</v>
       </c>
     </row>
@@ -2378,7 +2387,7 @@
       <c r="A13" s="6">
         <v>44933</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>400</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -2395,7 +2404,7 @@
       <c r="A14" s="6">
         <v>44936</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="33" t="s">
         <v>414</v>
       </c>
       <c r="E14" t="s">
@@ -2406,7 +2415,18 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="D15" s="26"/>
+      <c r="A15" s="6">
+        <v>44937</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="E15" t="s">
+        <v>416</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>418</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2418,11 +2438,12 @@
     <hyperlink ref="G10" r:id="rId6" xr:uid="{820DA53F-3B60-45D2-909D-339D96A1F3DA}"/>
     <hyperlink ref="G12" r:id="rId7" xr:uid="{940BAC9C-029F-4583-BF04-BB4B64DE1559}"/>
     <hyperlink ref="G8" r:id="rId8" xr:uid="{EEDC20E1-9658-4446-AB7D-9314CD954902}"/>
+    <hyperlink ref="G15" r:id="rId9" xr:uid="{3405CBDA-E63D-4DA2-B78C-2CDC12A85071}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2443,42 +2464,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="42">
+      <c r="A2" s="41">
         <v>44930</v>
       </c>
       <c r="B2" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>400</v>
       </c>
       <c r="E2" t="s">
         <v>401</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2508,482 +2529,482 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21">
-      <c r="A2" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21">
-      <c r="A3" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
-      <c r="A4" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21">
-      <c r="A5" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
-      <c r="A9" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
-      <c r="A10" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
-      <c r="A11" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
-      <c r="A12" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
-      <c r="A13" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
-      <c r="A14" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
-      <c r="A15" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
-      <c r="A16" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
-      <c r="A17" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
-      <c r="A18" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
-      <c r="A19" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21">
-      <c r="A20" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">
-      <c r="A21" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21">
-      <c r="A22" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" s="32" t="s">
+      <c r="A22" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
-      <c r="A23" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
-      <c r="A24" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21">
-      <c r="A25" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B25" s="32" t="s">
+      <c r="A25" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">
-      <c r="A26" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B26" s="32" t="s">
+      <c r="A26" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21">
-      <c r="A27" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B27" s="32" t="s">
+      <c r="A27" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21">
-      <c r="A28" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B28" s="32" t="s">
+      <c r="A28" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21">
-      <c r="A29" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29" s="32" t="s">
+      <c r="A29" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21">
-      <c r="A30" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B30" s="32" t="s">
+      <c r="A30" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21">
-      <c r="A31" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B31" s="32" t="s">
+      <c r="A31" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21">
-      <c r="A32" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B32" s="32" t="s">
+      <c r="A32" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
-      <c r="A33" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B33" s="32" t="s">
+      <c r="A33" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
-      <c r="A34" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B34" s="32" t="s">
+      <c r="A34" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">
-      <c r="A35" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B35" s="32" t="s">
+      <c r="A35" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21">
-      <c r="A36" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B36" s="32" t="s">
+      <c r="A36" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21">
-      <c r="A37" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B37" s="32" t="s">
+      <c r="A37" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B37" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21">
-      <c r="A38" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B38" s="32" t="s">
+      <c r="A38" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21">
-      <c r="A39" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B39" s="32" t="s">
+      <c r="A39" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21">
-      <c r="A40" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B40" s="32" t="s">
+      <c r="A40" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21">
-      <c r="A41" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B41" s="32" t="s">
+      <c r="A41" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21">
-      <c r="A42" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B42" s="32" t="s">
+      <c r="A42" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="21">
-      <c r="A43" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B43" s="32" t="s">
+      <c r="A43" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B44" s="32" t="s">
+      <c r="A44" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="30" t="s">
         <v>334</v>
       </c>
     </row>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9573A84-69C1-4F81-8B0C-55BC14047578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8F7E6F-A1BC-4B23-ADCE-45A561E360D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="GFG-POTD" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="424">
   <si>
     <t>Link</t>
   </si>
@@ -1293,6 +1293,21 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/power-set4302/1</t>
+  </si>
+  <si>
+    <t>Permutations of a given string</t>
+  </si>
+  <si>
+    <t>Recursion, Strings, Backtracking, Data Structures, Algorithms</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mEBEw_xScsE</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/permutations-of-a-given-string2041/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/check-if-strings-are-rotations-of-each-other-or-not-1587115620/1</t>
   </si>
 </sst>
 </file>
@@ -2149,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E48C632-11F5-4A2E-85F2-57A50FB21D90}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2418,6 +2433,9 @@
       <c r="A15" s="6">
         <v>44937</v>
       </c>
+      <c r="B15" s="27" t="s">
+        <v>421</v>
+      </c>
       <c r="D15" s="42" t="s">
         <v>417</v>
       </c>
@@ -2426,6 +2444,23 @@
       </c>
       <c r="G15" s="27" t="s">
         <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6">
+        <v>44937</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="E16" t="s">
+        <v>419</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -2439,11 +2474,14 @@
     <hyperlink ref="G12" r:id="rId7" xr:uid="{940BAC9C-029F-4583-BF04-BB4B64DE1559}"/>
     <hyperlink ref="G8" r:id="rId8" xr:uid="{EEDC20E1-9658-4446-AB7D-9314CD954902}"/>
     <hyperlink ref="G15" r:id="rId9" xr:uid="{3405CBDA-E63D-4DA2-B78C-2CDC12A85071}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{DFBE469D-5B48-457D-800B-7A7543A59964}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{7C6DBD37-CE23-49BC-8BE2-100449E6589E}"/>
+    <hyperlink ref="G16" r:id="rId12" xr:uid="{15089079-93CC-435F-A147-386A6BDFE097}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2517,10 +2555,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014C5B5-AA76-432C-BC45-E7A9A66A2A09}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2528,14 +2566,14 @@
     <col min="2" max="2" width="115.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="28"/>
       <c r="B1" s="29"/>
       <c r="C1" s="30" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21">
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="28" t="s">
         <v>217</v>
       </c>
@@ -2546,7 +2584,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21">
+    <row r="3" spans="1:4" ht="21">
       <c r="A3" s="28" t="s">
         <v>217</v>
       </c>
@@ -2557,18 +2595,18 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="28" t="s">
         <v>217</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="32" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21">
+    <row r="5" spans="1:4" ht="21">
       <c r="A5" s="28" t="s">
         <v>217</v>
       </c>
@@ -2579,18 +2617,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" spans="1:4" ht="21">
       <c r="A6" s="28" t="s">
         <v>217</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="32" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21">
+      <c r="D6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="28" t="s">
         <v>217</v>
       </c>
@@ -2601,7 +2642,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21">
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="28" t="s">
         <v>217</v>
       </c>
@@ -2612,7 +2653,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
+    <row r="9" spans="1:4" ht="21">
       <c r="A9" s="28" t="s">
         <v>217</v>
       </c>
@@ -2623,7 +2664,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" spans="1:4" ht="21">
       <c r="A10" s="28" t="s">
         <v>217</v>
       </c>
@@ -2634,7 +2675,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" spans="1:4" ht="21">
       <c r="A11" s="28" t="s">
         <v>217</v>
       </c>
@@ -2645,7 +2686,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
+    <row r="12" spans="1:4" ht="21">
       <c r="A12" s="28" t="s">
         <v>217</v>
       </c>
@@ -2656,7 +2697,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="28" t="s">
         <v>217</v>
       </c>
@@ -2667,7 +2708,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="28" t="s">
         <v>217</v>
       </c>
@@ -2678,7 +2719,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="28" t="s">
         <v>217</v>
       </c>
@@ -2689,7 +2730,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" spans="1:4" ht="21">
       <c r="A16" s="28" t="s">
         <v>217</v>
       </c>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8F7E6F-A1BC-4B23-ADCE-45A561E360D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A874692-A37B-43E6-89CE-5ECFB7CB0200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="GFG-POTD" sheetId="2" r:id="rId1"/>
@@ -26,9 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="434">
   <si>
     <t>Link</t>
   </si>
@@ -1308,6 +1311,36 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/check-if-strings-are-rotations-of-each-other-or-not-1587115620/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/subarray-with-0-sum-1587115621/1</t>
+  </si>
+  <si>
+    <t>Subarray with 0 sum</t>
+  </si>
+  <si>
+    <t>HashMap, sliding-window, STL, Data Structures, Algorithms</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8inhayLCCHs&amp;list=LL&amp;index=1&amp;t=654s</t>
+  </si>
+  <si>
+    <t>Subarray with given sum</t>
+  </si>
+  <si>
+    <t>Arrays, prefix-sum, Searching, sliding-window, Data Structures, Algorithms</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HbbYPQc-Oo4</t>
+  </si>
+  <si>
+    <t>Subarrays with given sum</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/subarray-range-with-given-sum2804/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/subarray-with-given-sum-1587115621/1</t>
   </si>
 </sst>
 </file>
@@ -2156,7 +2189,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2164,10 +2197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E48C632-11F5-4A2E-85F2-57A50FB21D90}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2463,6 +2496,63 @@
         <v>422</v>
       </c>
     </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6">
+        <v>44942</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="E17" t="s">
+        <v>425</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
+        <v>44942</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="E18" t="s">
+        <v>428</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6">
+        <v>44942</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="E19" t="s">
+        <v>431</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{2AB6853C-DA77-487A-A421-B74277CCAEB4}"/>
@@ -2477,11 +2567,16 @@
     <hyperlink ref="B15" r:id="rId10" xr:uid="{DFBE469D-5B48-457D-800B-7A7543A59964}"/>
     <hyperlink ref="B16" r:id="rId11" xr:uid="{7C6DBD37-CE23-49BC-8BE2-100449E6589E}"/>
     <hyperlink ref="G16" r:id="rId12" xr:uid="{15089079-93CC-435F-A147-386A6BDFE097}"/>
+    <hyperlink ref="G17" r:id="rId13" xr:uid="{4EFECEF2-1083-4091-85F1-0E53064ACDAF}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{2C43056C-5088-4C45-BDD4-85A37515DDDB}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{7584C77E-765D-4253-818F-A55721677F3F}"/>
+    <hyperlink ref="G19" r:id="rId16" xr:uid="{A505CEAA-9856-4A90-A768-F600FC39B8B9}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{3051715E-5AA2-4A84-9E1A-6C40EBBFE551}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2557,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014C5B5-AA76-432C-BC45-E7A9A66A2A09}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2682,7 +2777,7 @@
       <c r="B11" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="32" t="s">
         <v>334</v>
       </c>
     </row>
@@ -2693,7 +2788,7 @@
       <c r="B12" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="32" t="s">
         <v>334</v>
       </c>
     </row>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A874692-A37B-43E6-89CE-5ECFB7CB0200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4DC80E-3734-44D6-8094-247AC8CE1966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="436">
   <si>
     <t>Link</t>
   </si>
@@ -1341,6 +1330,12 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/subarray-with-given-sum-1587115621/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/maximum-of-all-subarrays-of-size-k3101/1</t>
+  </si>
+  <si>
+    <t>Maximum of subarrays of size k</t>
   </si>
 </sst>
 </file>
@@ -2197,10 +2192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E48C632-11F5-4A2E-85F2-57A50FB21D90}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2551,6 +2546,20 @@
       </c>
       <c r="G19" s="27" t="s">
         <v>432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6">
+        <v>44943</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>435</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -2572,11 +2581,12 @@
     <hyperlink ref="B19" r:id="rId15" xr:uid="{7584C77E-765D-4253-818F-A55721677F3F}"/>
     <hyperlink ref="G19" r:id="rId16" xr:uid="{A505CEAA-9856-4A90-A768-F600FC39B8B9}"/>
     <hyperlink ref="G18" r:id="rId17" xr:uid="{3051715E-5AA2-4A84-9E1A-6C40EBBFE551}"/>
+    <hyperlink ref="G20" r:id="rId18" xr:uid="{3FE277EE-65D3-4721-8B09-C8D52E15290B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4DC80E-3734-44D6-8094-247AC8CE1966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E0E8E4-8B42-4ADF-AB65-DE2B8B7B8D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="440">
   <si>
     <t>Link</t>
   </si>
@@ -1336,6 +1336,18 @@
   </si>
   <si>
     <t>Maximum of subarrays of size k</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/majority-element-1587115620/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/missing-number-in-array1416/1</t>
+  </si>
+  <si>
+    <t>Missing number in array</t>
   </si>
 </sst>
 </file>
@@ -2192,10 +2204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E48C632-11F5-4A2E-85F2-57A50FB21D90}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2560,6 +2572,34 @@
       </c>
       <c r="G20" s="27" t="s">
         <v>434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6">
+        <v>44946</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>436</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6">
+        <v>44946</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>439</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -2582,11 +2622,13 @@
     <hyperlink ref="G19" r:id="rId16" xr:uid="{A505CEAA-9856-4A90-A768-F600FC39B8B9}"/>
     <hyperlink ref="G18" r:id="rId17" xr:uid="{3051715E-5AA2-4A84-9E1A-6C40EBBFE551}"/>
     <hyperlink ref="G20" r:id="rId18" xr:uid="{3FE277EE-65D3-4721-8B09-C8D52E15290B}"/>
+    <hyperlink ref="G21" r:id="rId19" xr:uid="{73E5613D-6B0E-41DB-8E3E-C8D78E21F14A}"/>
+    <hyperlink ref="G22" r:id="rId20" xr:uid="{425DC759-D01C-44B2-8678-DF6B1E1BE2C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E0E8E4-8B42-4ADF-AB65-DE2B8B7B8D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D02B432-0222-4E62-B2E2-1E03FDB6F462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="443">
   <si>
     <t>Link</t>
   </si>
@@ -1348,6 +1348,15 @@
   </si>
   <si>
     <t>Missing number in array</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/466faca80c3e86f13880710491c634d26abd44a7/1</t>
+  </si>
+  <si>
+    <t>Geeks And The String</t>
+  </si>
+  <si>
+    <t>STACK</t>
   </si>
 </sst>
 </file>
@@ -2204,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E48C632-11F5-4A2E-85F2-57A50FB21D90}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2600,6 +2609,20 @@
       </c>
       <c r="G22" s="27" t="s">
         <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6">
+        <v>44949</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="E23" t="s">
+        <v>441</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -2624,11 +2647,12 @@
     <hyperlink ref="G20" r:id="rId18" xr:uid="{3FE277EE-65D3-4721-8B09-C8D52E15290B}"/>
     <hyperlink ref="G21" r:id="rId19" xr:uid="{73E5613D-6B0E-41DB-8E3E-C8D78E21F14A}"/>
     <hyperlink ref="G22" r:id="rId20" xr:uid="{425DC759-D01C-44B2-8678-DF6B1E1BE2C2}"/>
+    <hyperlink ref="G23" r:id="rId21" xr:uid="{6E1D3F40-2D16-4B01-8044-F59DE134E7C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D02B432-0222-4E62-B2E2-1E03FDB6F462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F35F34-DA9C-499E-A227-C5D304464316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="457">
   <si>
     <t>Link</t>
   </si>
@@ -1357,13 +1357,55 @@
   </si>
   <si>
     <t>STACK</t>
+  </si>
+  <si>
+    <t>Mirror Tree</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/mirror-tree/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/merge-two-binary-max-heap0144/1</t>
+  </si>
+  <si>
+    <t>Merge two binary Max heaps</t>
+  </si>
+  <si>
+    <t>Binary Heap</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/case-specific-sorting-of-strings4845/1</t>
+  </si>
+  <si>
+    <t>Case-specific Sorting of Strings</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/anagram-1587115620/1?page=1&amp;category[]=Strings&amp;curated[]=8&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Anagram</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/count-palindrome-sub-strings-of-a-string0652/1?page=1&amp;category[]=Strings&amp;curated[]=8&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Count Palindrome Sub-Strings of a String</t>
+  </si>
+  <si>
+    <t>Palindrome String</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4RACzI5-du8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1491,6 +1533,12 @@
       <u/>
       <sz val="16"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1715,7 +1763,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1765,6 +1813,7 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2213,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E48C632-11F5-4A2E-85F2-57A50FB21D90}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2623,6 +2672,79 @@
       </c>
       <c r="G23" s="27" t="s">
         <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6">
+        <v>44952</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>443</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6">
+        <v>44952</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="E25" t="s">
+        <v>446</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6">
+        <v>44952</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="E26" t="s">
+        <v>449</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6">
+        <v>44953</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="E27" t="s">
+        <v>452</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6">
+        <v>44953</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="E28" t="s">
+        <v>454</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -2648,11 +2770,17 @@
     <hyperlink ref="G21" r:id="rId19" xr:uid="{73E5613D-6B0E-41DB-8E3E-C8D78E21F14A}"/>
     <hyperlink ref="G22" r:id="rId20" xr:uid="{425DC759-D01C-44B2-8678-DF6B1E1BE2C2}"/>
     <hyperlink ref="G23" r:id="rId21" xr:uid="{6E1D3F40-2D16-4B01-8044-F59DE134E7C8}"/>
+    <hyperlink ref="G24" r:id="rId22" xr:uid="{1DF7AA31-7584-47FF-B5F8-68AF75A19842}"/>
+    <hyperlink ref="G25" r:id="rId23" xr:uid="{F24396C4-EC1A-4248-8A08-DCE0366D4D05}"/>
+    <hyperlink ref="G26" r:id="rId24" xr:uid="{F32783D3-F9DA-4BC8-A70D-E773493B6B81}"/>
+    <hyperlink ref="G27" r:id="rId25" xr:uid="{A0049147-6B21-43DF-86D9-5C5EE9B3DFFF}"/>
+    <hyperlink ref="G28" r:id="rId26" xr:uid="{03CCBBD3-B0C7-44BF-8BF8-1E58B2DB2ED2}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{24653BAC-6A08-49B8-A67C-B34CFB32E0D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
   <tableParts count="1">
-    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2728,7 +2856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014C5B5-AA76-432C-BC45-E7A9A66A2A09}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3273,11 +3401,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DEF9E1-C543-4106-98CA-32E1F4A8E82A}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E78"/>
+    <sheetView topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="73.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" thickBot="1">
       <c r="A1" s="8" t="s">

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F35F34-DA9C-499E-A227-C5D304464316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28E0DD0-73A9-4BC2-83CF-AE3EEC0889AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="459">
   <si>
     <t>Link</t>
   </si>
@@ -1399,6 +1399,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=4RACzI5-du8</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/longest-common-prefix-in-an-array5129/1?page=1&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix in an Array</t>
   </si>
 </sst>
 </file>
@@ -2262,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E48C632-11F5-4A2E-85F2-57A50FB21D90}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2745,6 +2751,20 @@
       </c>
       <c r="G28" s="27" t="s">
         <v>453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="6">
+        <v>44954</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="E29" t="s">
+        <v>458</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -2776,11 +2796,12 @@
     <hyperlink ref="G27" r:id="rId25" xr:uid="{A0049147-6B21-43DF-86D9-5C5EE9B3DFFF}"/>
     <hyperlink ref="G28" r:id="rId26" xr:uid="{03CCBBD3-B0C7-44BF-8BF8-1E58B2DB2ED2}"/>
     <hyperlink ref="B28" r:id="rId27" xr:uid="{24653BAC-6A08-49B8-A67C-B34CFB32E0D6}"/>
+    <hyperlink ref="G29" r:id="rId28" xr:uid="{C32C0143-34C5-4B9B-8EB6-C7E82079E632}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28E0DD0-73A9-4BC2-83CF-AE3EEC0889AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC7C853-45EA-476F-B388-16FBD8873582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="GFG-POTD" sheetId="2" r:id="rId1"/>
-    <sheet name="HackerRank" sheetId="5" r:id="rId2"/>
-    <sheet name="LoveBabber" sheetId="4" r:id="rId3"/>
-    <sheet name="Neetcode" sheetId="3" r:id="rId4"/>
+    <sheet name="Strings" sheetId="7" r:id="rId2"/>
+    <sheet name="String-LoveBabber" sheetId="4" r:id="rId3"/>
+    <sheet name="Bit_Manipulation" sheetId="6" r:id="rId4"/>
+    <sheet name="HackerRank" sheetId="5" r:id="rId5"/>
+    <sheet name="Neetcode" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="473">
   <si>
     <t>Link</t>
   </si>
@@ -1405,6 +1407,48 @@
   </si>
   <si>
     <t>Longest Common Prefix in an Array</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mmruak315T8&amp;list=PLfQN-EvRGF39Vz4UO18BtA1ocnUhGkvk5&amp;index=2</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Odd or Even</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/odd-or-even3618/1?page=2&amp;category[]=Bit%20Magic&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/find-first-set-bit-1587115620/1?page=1&amp;category[]=Bit%20Magic&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Find first set bit</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/finding-the-numbers0215/1?page=1&amp;category[]=Bit%20Magic&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Non Repeating Numbers</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/set-bits0143/1?page=1&amp;category[]=Bit%20Magic&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/is-binary-number-multiple-of-30654/1?page=1&amp;category[]=Bit%20Magic&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Is Binary Number Multiple of 3</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/contest/gfg-weekly-coding-contest-86/problems/#</t>
+  </si>
+  <si>
+    <t>Split the String</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_RgQ8ZdThWg</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1633,6 +1677,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1769,7 +1819,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1820,6 +1870,12 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="14" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2268,10 +2324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E48C632-11F5-4A2E-85F2-57A50FB21D90}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2766,6 +2822,23 @@
       <c r="G29" s="27" t="s">
         <v>457</v>
       </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6">
+        <v>44955</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>466</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="D31" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2797,79 +2870,78 @@
     <hyperlink ref="G28" r:id="rId26" xr:uid="{03CCBBD3-B0C7-44BF-8BF8-1E58B2DB2ED2}"/>
     <hyperlink ref="B28" r:id="rId27" xr:uid="{24653BAC-6A08-49B8-A67C-B34CFB32E0D6}"/>
     <hyperlink ref="G29" r:id="rId28" xr:uid="{C32C0143-34C5-4B9B-8EB6-C7E82079E632}"/>
+    <hyperlink ref="G30" r:id="rId29" xr:uid="{C1547D99-AAA3-476F-9B60-119A4BE0C911}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
   <tableParts count="1">
-    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1821A91C-C2B8-4ED2-80E9-296D53AF9536}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DE06CC-A8AA-4970-870D-8EB788113C00}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>398</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>388</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="48" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="41">
-        <v>44930</v>
-      </c>
-      <c r="B2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C2" s="34" t="s">
+        <v>44955</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>400</v>
       </c>
+      <c r="D2" s="25" t="s">
+        <v>217</v>
+      </c>
       <c r="E2" t="s">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{59650EC8-569D-4A36-91B3-F60D81470FDC}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{934E1150-AC50-4C25-B8DA-7859BC6EE33B}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{5D3E46CA-EA96-4A82-AC99-CE917DEE2C0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -2877,7 +2949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014C5B5-AA76-432C-BC45-E7A9A66A2A09}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3419,6 +3491,180 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AAEF7D-C68C-41A4-B318-3DD95ABF3548}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="41">
+        <v>44955</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="41">
+        <v>44955</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="E3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="41">
+        <v>44955</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="41">
+        <v>44955</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="E5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{AA3EF114-8693-45DD-95B6-8DB76331A440}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{3080AF7B-CB2E-4372-B4C4-C8E6BD999BED}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{C74322C1-3BD0-4C2F-8A16-001362304490}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{2FA7A83E-BBA7-4A7E-AD79-933C34BDF20C}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{9088A8FC-F1A3-474F-A23B-17AE56B19AE8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1821A91C-C2B8-4ED2-80E9-296D53AF9536}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="41">
+        <v>44930</v>
+      </c>
+      <c r="B2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>402</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{59650EC8-569D-4A36-91B3-F60D81470FDC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DEF9E1-C543-4106-98CA-32E1F4A8E82A}">
   <dimension ref="A1:E78"/>
   <sheetViews>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC7C853-45EA-476F-B388-16FBD8873582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB24CB5-32B4-4447-A940-6DE03CDFDAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="GFG-POTD" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="479">
   <si>
     <t>Link</t>
   </si>
@@ -1449,6 +1449,24 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=_RgQ8ZdThWg</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/uncommon-characters4932/1?page=1&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Uncommon characters</t>
+  </si>
+  <si>
+    <t>Find first repeated character</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/find-first-repeated-character4108/1?page=1&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Minimum indexed character</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/minimum-indexed-character-1587115620/1?page=1&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +1837,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1870,11 +1888,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="14" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -2882,10 +2895,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DE06CC-A8AA-4970-870D-8EB788113C00}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2894,25 +2907,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="40" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2923,7 +2936,7 @@
       <c r="B2" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="44" t="s">
         <v>400</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -2934,12 +2947,65 @@
       </c>
       <c r="G2" s="27" t="s">
         <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="41">
+        <v>44956</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" t="s">
+        <v>474</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="41">
+        <v>44956</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="41">
+        <v>44956</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" t="s">
+        <v>477</v>
+      </c>
+      <c r="G5" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{934E1150-AC50-4C25-B8DA-7859BC6EE33B}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{5D3E46CA-EA96-4A82-AC99-CE917DEE2C0F}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{8F1538BB-3986-4ADE-96A7-5D322A71CCAD}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{273FE69C-37C3-4734-B731-ABD27EECC1B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2949,7 +3015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014C5B5-AA76-432C-BC45-E7A9A66A2A09}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3501,25 +3567,25 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="40" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3572,7 +3638,7 @@
       <c r="A5" s="41">
         <v>44955</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="44" t="s">
         <v>400</v>
       </c>
       <c r="D5" s="25" t="s">

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB24CB5-32B4-4447-A940-6DE03CDFDAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC88B596-F430-4A23-B96B-2D19C5D90B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="492">
   <si>
     <t>Link</t>
   </si>
@@ -1467,6 +1467,45 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/minimum-indexed-character-1587115620/1?page=1&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Convert a sentence into its equivalent mobile numeric keypad sequence</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/convert-a-sentence-into-its-equivalent-mobile-numeric-keypad-sequence0547/1?page=1&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Reverse a string using Stack</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/reverse-a-string-using-stack/1</t>
+  </si>
+  <si>
+    <t>Smallest window in a string containing all the characters of another string</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/smallest-window-in-a-string-containing-all-the-characters-of-another-string-1587115621/1?page=1&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MdY4avL4X9I</t>
+  </si>
+  <si>
+    <t>Implement strstr</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/implement-strstr/1?page=1&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/rotate-bits4524/1?page=1&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Rotate Bits</t>
+  </si>
+  <si>
+    <t>Parenthesis Checker</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/parenthesis-checker2744/1?page=1&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
   </si>
 </sst>
 </file>
@@ -2895,15 +2934,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DE06CC-A8AA-4970-870D-8EB788113C00}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2998,6 +3037,96 @@
       </c>
       <c r="G5" t="s">
         <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="41">
+        <v>44956</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" t="s">
+        <v>479</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="41">
+        <v>44957</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="41">
+        <v>44957</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" t="s">
+        <v>483</v>
+      </c>
+      <c r="G8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="41">
+        <v>44928</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" t="s">
+        <v>486</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="41">
+        <v>44928</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="41">
+        <v>44929</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" t="s">
+        <v>490</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -3006,6 +3135,11 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{5D3E46CA-EA96-4A82-AC99-CE917DEE2C0F}"/>
     <hyperlink ref="G3" r:id="rId3" xr:uid="{8F1538BB-3986-4ADE-96A7-5D322A71CCAD}"/>
     <hyperlink ref="G4" r:id="rId4" xr:uid="{273FE69C-37C3-4734-B731-ABD27EECC1B3}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{34921606-8357-4F17-A133-BD6AAD112F41}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{1DE46E28-8C33-4C9E-A976-293AC15426AE}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{4C23FC1E-6F06-4D46-BC4C-FA124050EAA3}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{C7657010-1453-4CCF-85F8-4973948D2039}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{2648C1B7-F343-4587-9E36-1EDC73A97AA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC88B596-F430-4A23-B96B-2D19C5D90B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF46D39-DB6C-44D5-9BAE-6D6B334903B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="496">
   <si>
     <t>Link</t>
   </si>
@@ -1506,6 +1506,18 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/parenthesis-checker2744/1?page=1&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Reverse words in a given string</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/reverse-words-in-a-given-string5459/1?page=1&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Check if string is rotated by two places</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/check-if-string-is-rotated-by-two-places-1587115620/1?page=1&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
   </si>
 </sst>
 </file>
@@ -2934,10 +2946,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DE06CC-A8AA-4970-870D-8EB788113C00}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3127,6 +3139,40 @@
       </c>
       <c r="G11" s="27" t="s">
         <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="41">
+        <v>44929</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" t="s">
+        <v>492</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="41">
+        <v>44933</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" t="s">
+        <v>494</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -3140,6 +3186,8 @@
     <hyperlink ref="G9" r:id="rId7" xr:uid="{4C23FC1E-6F06-4D46-BC4C-FA124050EAA3}"/>
     <hyperlink ref="G10" r:id="rId8" xr:uid="{C7657010-1453-4CCF-85F8-4973948D2039}"/>
     <hyperlink ref="G11" r:id="rId9" xr:uid="{2648C1B7-F343-4587-9E36-1EDC73A97AA1}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{64F86BFD-3289-4B96-858F-2462C5837494}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{5A85368B-D946-4418-8E52-12E9E319D439}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF46D39-DB6C-44D5-9BAE-6D6B334903B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DC540E-3CB1-4655-9EDB-FAB03624D43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="500">
   <si>
     <t>Link</t>
   </si>
@@ -1518,6 +1518,18 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/check-if-string-is-rotated-by-two-places-1587115620/1?page=1&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Longest Distinct characters in string</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/longest-distinct-characters-in-string5848/1?page=1&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Remove Duplicates</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/remove-duplicates3034/1?page=1&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
   </si>
 </sst>
 </file>
@@ -2380,7 +2392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2946,10 +2958,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DE06CC-A8AA-4970-870D-8EB788113C00}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3173,6 +3185,37 @@
       </c>
       <c r="G13" s="27" t="s">
         <v>495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="41">
+        <v>44935</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" t="s">
+        <v>496</v>
+      </c>
+      <c r="G14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="41">
+        <v>44935</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" t="s">
+        <v>498</v>
+      </c>
+      <c r="G15" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/Practise.xlsx
+++ b/Practise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\Desktop\CODE\Code-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DC540E-3CB1-4655-9EDB-FAB03624D43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA655B5-F224-49AA-AC71-BF5F01733872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{56612659-8F01-41D5-95F4-7BE08AD59EC4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="507">
   <si>
     <t>Link</t>
   </si>
@@ -1530,6 +1530,27 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/remove-duplicates3034/1?page=1&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Longest Common Substring</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/longest-common-substring1452/1?page=2&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Implement Atoi</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/implement-atoi/1?page=2&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>Longest Palindrome in a String</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/longest-palindrome-in-a-string3411/1?page=1&amp;status[]=unsolved&amp;category[]=Strings&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XYQecbcd6_c</t>
   </si>
 </sst>
 </file>
@@ -2403,7 +2424,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2958,10 +2979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DE06CC-A8AA-4970-870D-8EB788113C00}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3110,7 +3131,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="41">
-        <v>44928</v>
+        <v>44959</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>217</v>
@@ -3124,7 +3145,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="41">
-        <v>44928</v>
+        <v>44959</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>400</v>
@@ -3141,7 +3162,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="41">
-        <v>44929</v>
+        <v>44960</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>217</v>
@@ -3155,7 +3176,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="41">
-        <v>44929</v>
+        <v>44960</v>
       </c>
       <c r="C12" s="44" t="s">
         <v>400</v>
@@ -3172,7 +3193,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="41">
-        <v>44933</v>
+        <v>44964</v>
       </c>
       <c r="C13" s="44" t="s">
         <v>400</v>
@@ -3189,7 +3210,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="41">
-        <v>44935</v>
+        <v>44966</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>400</v>
@@ -3206,7 +3227,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="41">
-        <v>44935</v>
+        <v>44966</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>217</v>
@@ -3216,6 +3237,51 @@
       </c>
       <c r="G15" t="s">
         <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="41">
+        <v>44972</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" t="s">
+        <v>500</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="41">
+        <v>44972</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" t="s">
+        <v>502</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="41">
+        <v>44972</v>
+      </c>
+      <c r="B18" t="s">
+        <v>506</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" t="s">
+        <v>504</v>
+      </c>
+      <c r="G18" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -3231,6 +3297,8 @@
     <hyperlink ref="G11" r:id="rId9" xr:uid="{2648C1B7-F343-4587-9E36-1EDC73A97AA1}"/>
     <hyperlink ref="G12" r:id="rId10" xr:uid="{64F86BFD-3289-4B96-858F-2462C5837494}"/>
     <hyperlink ref="G13" r:id="rId11" xr:uid="{5A85368B-D946-4418-8E52-12E9E319D439}"/>
+    <hyperlink ref="G16" r:id="rId12" xr:uid="{EC9D44D7-3E3C-4FA2-AABC-C19704B3095C}"/>
+    <hyperlink ref="G17" r:id="rId13" xr:uid="{7EA92ADC-CFFA-49C9-9027-7A7EAD915081}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3240,8 +3308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014C5B5-AA76-432C-BC45-E7A9A66A2A09}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
